--- a/natmiOut/OldD2/LR-pairs_lrc2p/Timp3-Agtr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Timp3-Agtr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>77.24887238297261</v>
+        <v>77.3174515</v>
       </c>
       <c r="H2">
-        <v>77.24887238297261</v>
+        <v>154.634903</v>
       </c>
       <c r="I2">
-        <v>0.3347814326975469</v>
+        <v>0.3250124887881288</v>
       </c>
       <c r="J2">
-        <v>0.3347814326975469</v>
+        <v>0.2721424217793227</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.86799239367063</v>
+        <v>0.1409635</v>
       </c>
       <c r="N2">
-        <v>0.86799239367063</v>
+        <v>0.281927</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.127302058387171</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.0886289202516707</v>
       </c>
       <c r="Q2">
-        <v>67.05143364805342</v>
+        <v>10.89893857452025</v>
       </c>
       <c r="R2">
-        <v>67.05143364805342</v>
+        <v>43.595754298081</v>
       </c>
       <c r="S2">
-        <v>0.3347814326975469</v>
+        <v>0.04137475882426613</v>
       </c>
       <c r="T2">
-        <v>0.3347814326975469</v>
+        <v>0.02411968899697613</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -593,57 +593,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2358625935302</v>
+        <v>77.3174515</v>
       </c>
       <c r="H3">
-        <v>11.2358625935302</v>
+        <v>154.634903</v>
       </c>
       <c r="I3">
-        <v>0.04869402051600623</v>
+        <v>0.3250124887881288</v>
       </c>
       <c r="J3">
-        <v>0.04869402051600623</v>
+        <v>0.2721424217793227</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.86799239367063</v>
+        <v>0.9663516666666667</v>
       </c>
       <c r="N3">
-        <v>0.86799239367063</v>
+        <v>2.899055</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.872697941612829</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9113710797483293</v>
       </c>
       <c r="Q3">
-        <v>9.752643267512571</v>
+        <v>74.71584811944417</v>
       </c>
       <c r="R3">
-        <v>9.752643267512571</v>
+        <v>448.2950887166651</v>
       </c>
       <c r="S3">
-        <v>0.04869402051600623</v>
+        <v>0.2836377299638627</v>
       </c>
       <c r="T3">
-        <v>0.04869402051600623</v>
+        <v>0.2480227327823466</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>74.57591316126479</v>
+        <v>13.28375266666667</v>
       </c>
       <c r="H4">
-        <v>74.57591316126479</v>
+        <v>39.851258</v>
       </c>
       <c r="I4">
-        <v>0.3231973526950703</v>
+        <v>0.0558397286884097</v>
       </c>
       <c r="J4">
-        <v>0.3231973526950703</v>
+        <v>0.07013434646816191</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.86799239367063</v>
+        <v>0.1409635</v>
       </c>
       <c r="N4">
-        <v>0.86799239367063</v>
+        <v>0.281927</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.127302058387171</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.0886289202516707</v>
       </c>
       <c r="Q4">
-        <v>64.73132537501927</v>
+        <v>1.872524269027666</v>
       </c>
       <c r="R4">
-        <v>64.73132537501927</v>
+        <v>11.235145614166</v>
       </c>
       <c r="S4">
-        <v>0.3231973526950703</v>
+        <v>0.007108512401815718</v>
       </c>
       <c r="T4">
-        <v>0.3231973526950703</v>
+        <v>0.006215931400029765</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,52 +717,300 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>67.68354744240339</v>
+        <v>13.28375266666667</v>
       </c>
       <c r="H5">
-        <v>67.68354744240339</v>
+        <v>39.851258</v>
       </c>
       <c r="I5">
-        <v>0.2933271940913767</v>
+        <v>0.0558397286884097</v>
       </c>
       <c r="J5">
-        <v>0.2933271940913767</v>
+        <v>0.07013434646816191</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.86799239367063</v>
+        <v>0.9663516666666667</v>
       </c>
       <c r="N5">
-        <v>0.86799239367063</v>
+        <v>2.899055</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.872697941612829</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9113710797483293</v>
       </c>
       <c r="Q5">
-        <v>58.74880435665137</v>
+        <v>12.83677652902111</v>
       </c>
       <c r="R5">
-        <v>58.74880435665137</v>
+        <v>115.53098876119</v>
       </c>
       <c r="S5">
-        <v>0.2933271940913767</v>
+        <v>0.04873121628659398</v>
       </c>
       <c r="T5">
-        <v>0.2933271940913767</v>
+        <v>0.06391841506813215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>79.14797966666667</v>
+      </c>
+      <c r="H6">
+        <v>237.443939</v>
+      </c>
+      <c r="I6">
+        <v>0.332707317105706</v>
+      </c>
+      <c r="J6">
+        <v>0.4178782884241973</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.1409635</v>
+      </c>
+      <c r="N6">
+        <v>0.281927</v>
+      </c>
+      <c r="O6">
+        <v>0.127302058387171</v>
+      </c>
+      <c r="P6">
+        <v>0.0886289202516707</v>
+      </c>
+      <c r="Q6">
+        <v>11.15697623174217</v>
+      </c>
+      <c r="R6">
+        <v>66.94185739045299</v>
+      </c>
+      <c r="S6">
+        <v>0.0423543263080296</v>
+      </c>
+      <c r="T6">
+        <v>0.03703610149965283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>79.14797966666667</v>
+      </c>
+      <c r="H7">
+        <v>237.443939</v>
+      </c>
+      <c r="I7">
+        <v>0.332707317105706</v>
+      </c>
+      <c r="J7">
+        <v>0.4178782884241973</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.9663516666666667</v>
+      </c>
+      <c r="N7">
+        <v>2.899055</v>
+      </c>
+      <c r="O7">
+        <v>0.872697941612829</v>
+      </c>
+      <c r="P7">
+        <v>0.9113710797483293</v>
+      </c>
+      <c r="Q7">
+        <v>76.48478206418278</v>
+      </c>
+      <c r="R7">
+        <v>688.3630385776451</v>
+      </c>
+      <c r="S7">
+        <v>0.2903529907976764</v>
+      </c>
+      <c r="T7">
+        <v>0.3808421869245445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>68.1415255</v>
+      </c>
+      <c r="H8">
+        <v>136.283051</v>
+      </c>
+      <c r="I8">
+        <v>0.2864404654177555</v>
+      </c>
+      <c r="J8">
+        <v>0.239844943328318</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>0.1409635</v>
+      </c>
+      <c r="N8">
+        <v>0.281927</v>
+      </c>
+      <c r="O8">
+        <v>0.127302058387171</v>
+      </c>
+      <c r="P8">
+        <v>0.0886289202516707</v>
+      </c>
+      <c r="Q8">
+        <v>9.60546792981925</v>
+      </c>
+      <c r="R8">
+        <v>38.421871719277</v>
+      </c>
+      <c r="S8">
+        <v>0.03646446085305954</v>
+      </c>
+      <c r="T8">
+        <v>0.02125719835501197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>68.1415255</v>
+      </c>
+      <c r="H9">
+        <v>136.283051</v>
+      </c>
+      <c r="I9">
+        <v>0.2864404654177555</v>
+      </c>
+      <c r="J9">
+        <v>0.239844943328318</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.9663516666666667</v>
+      </c>
+      <c r="N9">
+        <v>2.899055</v>
+      </c>
+      <c r="O9">
+        <v>0.872697941612829</v>
+      </c>
+      <c r="P9">
+        <v>0.9113710797483293</v>
+      </c>
+      <c r="Q9">
+        <v>65.84867673613417</v>
+      </c>
+      <c r="R9">
+        <v>395.092060416805</v>
+      </c>
+      <c r="S9">
+        <v>0.249976004564696</v>
+      </c>
+      <c r="T9">
+        <v>0.218587744973306</v>
       </c>
     </row>
   </sheetData>
